--- a/mf-intelligence/data/processed/quant/quant_Quantamental_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Quantamental_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE202B01038</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piramal Finance Ltd</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.172964</v>
+        <v>9.187924000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>9.2446</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.45973</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9283640000000002</v>
+        <v>9.187924000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1.713234</v>
+        <v>9.187924000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8.168625</v>
+        <v>8.361349000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>8.175542999999999</v>
+        <v>10.172964</v>
       </c>
       <c r="F3" t="n">
-        <v>8.289438000000001</v>
+        <v>9.2446</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.006917999999998869</v>
+        <v>-1.811615</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1208130000000001</v>
+        <v>-0.8832509999999996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE018A01030</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>Larsen &amp; Toubro Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.84677</v>
+        <v>7.955206</v>
       </c>
       <c r="E4" t="n">
-        <v>7.812093</v>
+        <v>7.788444</v>
       </c>
       <c r="F4" t="n">
-        <v>8.601606</v>
+        <v>7.483086</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03467700000000029</v>
+        <v>0.1667620000000003</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7548360000000001</v>
+        <v>0.4721200000000003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE018A01030</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Larsen &amp; Toubro Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.788444</v>
+        <v>7.508014</v>
       </c>
       <c r="E5" t="n">
-        <v>7.483086</v>
+        <v>7.84677</v>
       </c>
       <c r="F5" t="n">
-        <v>7.500485</v>
+        <v>7.812093</v>
       </c>
       <c r="G5" t="n">
-        <v>0.305358</v>
+        <v>-0.3387560000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2879589999999999</v>
+        <v>-0.3040789999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.446333</v>
+        <v>6.406086</v>
       </c>
       <c r="E6" t="n">
-        <v>3.129867</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.869898</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.316466</v>
+        <v>6.406086</v>
       </c>
       <c r="H6" t="n">
-        <v>3.576435</v>
+        <v>6.406086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE795G01014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>HDFC Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,30 +652,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.902581</v>
+        <v>5.947946</v>
       </c>
       <c r="E7" t="n">
-        <v>3.887941</v>
+        <v>5.752245</v>
       </c>
       <c r="F7" t="n">
-        <v>4.278965</v>
+        <v>5.652463</v>
       </c>
       <c r="G7" t="n">
-        <v>2.01464</v>
+        <v>0.1957009999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>1.623615999999999</v>
+        <v>0.2954829999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.824721</v>
+        <v>5.256688</v>
       </c>
       <c r="E8" t="n">
-        <v>5.911192</v>
+        <v>5.902581</v>
       </c>
       <c r="F8" t="n">
-        <v>6.25173</v>
+        <v>3.887941</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.08647099999999952</v>
+        <v>-0.6458930000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.427009</v>
+        <v>1.368746999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE795G01014</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HDFC Life Insurance Co Ltd</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.752245</v>
+        <v>3.961293</v>
       </c>
       <c r="E9" t="n">
-        <v>5.652463</v>
+        <v>3.658272</v>
       </c>
       <c r="F9" t="n">
-        <v>5.477145</v>
+        <v>3.657131</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09978200000000026</v>
+        <v>0.3030209999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2751000000000001</v>
+        <v>0.3041619999999998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE814H01029</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adani Power Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.034234</v>
+        <v>3.561141</v>
       </c>
       <c r="E10" t="n">
-        <v>4.011704</v>
+        <v>3.268366</v>
       </c>
       <c r="F10" t="n">
-        <v>4.344794</v>
+        <v>3.060061</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02252999999999972</v>
+        <v>0.2927750000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.3105600000000006</v>
+        <v>0.50108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.658272</v>
+        <v>3.097165</v>
       </c>
       <c r="E11" t="n">
-        <v>3.657131</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.435944</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001141000000000059</v>
+        <v>3.097165</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2223280000000001</v>
+        <v>3.097165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE814H01029</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Adani Power Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,30 +812,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.268366</v>
+        <v>2.788864</v>
       </c>
       <c r="E12" t="n">
-        <v>3.060061</v>
+        <v>4.034234</v>
       </c>
       <c r="F12" t="n">
-        <v>3.034851</v>
+        <v>4.011704</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2083049999999997</v>
+        <v>-1.24537</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2335149999999997</v>
+        <v>-1.22284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE726G01019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>ICICI Prudential Life Insurance Co Ltd</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.150556</v>
+        <v>2.351255</v>
       </c>
       <c r="E13" t="n">
-        <v>2.931532</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.935558</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2190240000000001</v>
+        <v>2.351255</v>
       </c>
       <c r="H13" t="n">
-        <v>0.214998</v>
+        <v>2.351255</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE437A01024</t>
+          <t>INE200M01039</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apollo Hospitals Enterprise Ltd</t>
+          <t>Varun Beverages Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.997156</v>
+        <v>1.93914</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -885,21 +885,21 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.997156</v>
+        <v>1.93914</v>
       </c>
       <c r="H14" t="n">
-        <v>1.997156</v>
+        <v>1.93914</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE860A01027</t>
+          <t>INE259A01022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HCL Technologies Limited</t>
+          <t>Colgate-Palmolive (India) Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.618943</v>
+        <v>1.572049</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -917,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.618943</v>
+        <v>1.572049</v>
       </c>
       <c r="H15" t="n">
-        <v>1.618943</v>
+        <v>1.572049</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Adani Energy Solutions Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,30 +940,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.423678</v>
       </c>
       <c r="E16" t="n">
-        <v>6.334069</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.442494</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.334069</v>
+        <v>0.423678</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.442494</v>
+        <v>0.423678</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE326A01037</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lupin Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -975,27 +975,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5.824721</v>
       </c>
       <c r="F17" t="n">
-        <v>1.043005</v>
+        <v>5.911192</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-5.824721</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.043005</v>
+        <v>-5.911192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE019A01038</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JSW Steel Limited</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1010,24 +1010,24 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.07038</v>
+        <v>6.334069</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.07038</v>
+        <v>-6.334069</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,27 +1039,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.18188</v>
+        <v>3.150556</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.931532</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.18188</v>
+        <v>-3.150556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-2.931532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE424H01027</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SUN TV Network Limited</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1074,13 +1074,141 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.961596</v>
+        <v>0.18188</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.961596</v>
+        <v>-0.18188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INE437A01024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Apollo Hospitals Enterprise Ltd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.997156</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.997156</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>INE758E01017</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jio Financial Services Limited</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.168625</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.175542999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-8.168625</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-8.175542999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INE775A01035</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Samvardhana Motherson International Ltd</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.446333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.129867</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-6.446333</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-3.129867</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>INE860A01027</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HCL Technologies Limited</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.618943</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.618943</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Quantamental_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Quantamental_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,21 +496,26 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.187924000000001</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.187924000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>9.187924000000001</v>
       </c>
+      <c r="I2" t="n">
+        <v>9.187924000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,20 +533,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>8.361349000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>10.172964</v>
       </c>
-      <c r="F3" t="n">
-        <v>9.2446</v>
-      </c>
       <c r="G3" t="n">
+        <v>8.45973</v>
+      </c>
+      <c r="H3" t="n">
         <v>-1.811615</v>
       </c>
-      <c r="H3" t="n">
-        <v>-0.8832509999999996</v>
+      <c r="I3" t="n">
+        <v>-0.09838099999999983</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>7.955206</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.788444</v>
       </c>
-      <c r="F4" t="n">
-        <v>7.483086</v>
-      </c>
       <c r="G4" t="n">
+        <v>7.500485</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1667620000000003</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.4721200000000003</v>
+      <c r="I4" t="n">
+        <v>0.4547210000000002</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.508014</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.84677</v>
       </c>
-      <c r="F5" t="n">
-        <v>7.812093</v>
-      </c>
       <c r="G5" t="n">
+        <v>8.601606</v>
+      </c>
+      <c r="H5" t="n">
         <v>-0.3387560000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.3040789999999998</v>
+      <c r="I5" t="n">
+        <v>-1.093592</v>
       </c>
     </row>
     <row r="6">
@@ -619,21 +644,26 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6.406086</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.406086</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>6.406086</v>
       </c>
+      <c r="I6" t="n">
+        <v>6.406086</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,20 +681,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.947946</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.752245</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.652463</v>
-      </c>
       <c r="G7" t="n">
+        <v>5.477145</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1957009999999997</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.2954829999999999</v>
+      <c r="I7" t="n">
+        <v>0.4708009999999998</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.256688</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.902581</v>
       </c>
-      <c r="F8" t="n">
-        <v>3.887941</v>
-      </c>
       <c r="G8" t="n">
+        <v>4.278965</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.6458930000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.368746999999999</v>
+      <c r="I8" t="n">
+        <v>0.9777229999999992</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>3.961293</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.658272</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.657131</v>
-      </c>
       <c r="G9" t="n">
+        <v>3.435944</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3030209999999998</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.3041619999999998</v>
+      <c r="I9" t="n">
+        <v>0.5253489999999998</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.561141</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.268366</v>
       </c>
-      <c r="F10" t="n">
-        <v>3.060061</v>
-      </c>
       <c r="G10" t="n">
+        <v>3.034851</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2927750000000002</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.50108</v>
+      <c r="I10" t="n">
+        <v>0.5262899999999999</v>
       </c>
     </row>
     <row r="11">
@@ -779,21 +829,26 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3.097165</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.097165</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>3.097165</v>
       </c>
+      <c r="I11" t="n">
+        <v>3.097165</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -811,20 +866,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.788864</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.034234</v>
       </c>
-      <c r="F12" t="n">
-        <v>4.011704</v>
-      </c>
       <c r="G12" t="n">
+        <v>4.344794</v>
+      </c>
+      <c r="H12" t="n">
         <v>-1.24537</v>
       </c>
-      <c r="H12" t="n">
-        <v>-1.22284</v>
+      <c r="I12" t="n">
+        <v>-1.55593</v>
       </c>
     </row>
     <row r="13">
@@ -843,21 +903,26 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.351255</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.351255</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>2.351255</v>
       </c>
+      <c r="I13" t="n">
+        <v>2.351255</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,21 +940,26 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.93914</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93914</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1.93914</v>
       </c>
+      <c r="I14" t="n">
+        <v>1.93914</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -907,21 +977,26 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.572049</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.572049</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1.572049</v>
       </c>
+      <c r="I15" t="n">
+        <v>1.572049</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -939,31 +1014,36 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>0.423678</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.423678</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0.423678</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.423678</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE424H01027</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>SUN TV Network Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>5.824721</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.911192</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.824721</v>
+        <v>0.961596</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.911192</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.961596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE296A01032</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bajaj Finance Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6.334069</v>
+        <v>3.150556</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.935558</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.334069</v>
+        <v>-3.150556</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-2.935558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE019A01038</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>JSW Steel Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>3.150556</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.931532</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.150556</v>
+        <v>3.07038</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.931532</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.07038</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE758E01017</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Jio Financial Services Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.18188</v>
+        <v>8.168625</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.289438000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.18188</v>
+        <v>-8.168625</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-8.289438000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE437A01024</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apollo Hospitals Enterprise Ltd</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,31 +1199,36 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>1.997156</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6.446333</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.997156</v>
+        <v>2.869898</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-6.446333</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-2.869898</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE758E01017</t>
+          <t>INE326A01037</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jio Financial Services Limited</t>
+          <t>Lupin Limited</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,31 +1236,36 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>8.168625</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8.175542999999999</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.168625</v>
+        <v>1.043005</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.175542999999999</v>
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1.043005</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE296A01032</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,20 +1273,25 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>6.446333</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3.129867</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.446333</v>
+        <v>6.442494</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.129867</v>
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-6.442494</v>
       </c>
     </row>
     <row r="24">
@@ -1195,19 +1310,98 @@
           <t>quant Quantamental Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.618943</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>-1.618943</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>INE271C01023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DLF Limited</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.824721</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.25173</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-5.824721</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-6.25173</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INE437A01024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Apollo Hospitals Enterprise Ltd</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.997156</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.997156</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/mf-intelligence/data/processed/quant/quant_Quantamental_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Quantamental_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,29 +498,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.187924000000001</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.187924000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>9.187924000000001</v>
       </c>
+      <c r="J2" t="n">
+        <v>9.187924000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.361349000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>10.172964</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.45973</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-1.811615</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-0.09838099999999983</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.955206</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7.788444</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>7.500485</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.1667620000000003</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.4547210000000002</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.508014</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.84677</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>8.601606</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.3387560000000001</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-1.093592</v>
       </c>
     </row>
@@ -641,29 +666,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.406086</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.406086</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>6.406086</v>
       </c>
+      <c r="J6" t="n">
+        <v>6.406086</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.947946</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.752245</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5.477145</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.1957009999999997</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.4708009999999998</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.256688</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>5.902581</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>4.278965</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.6458930000000001</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.9777229999999992</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.961293</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>3.658272</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.435944</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.3030209999999998</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.5253489999999998</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.561141</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>3.268366</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>3.034851</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.2927750000000002</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.5262899999999999</v>
       </c>
     </row>
@@ -826,29 +876,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.097165</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.097165</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>3.097165</v>
       </c>
+      <c r="J11" t="n">
+        <v>3.097165</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.788864</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>4.034234</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>4.344794</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>-1.24537</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-1.55593</v>
       </c>
     </row>
@@ -900,29 +960,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.351255</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.351255</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>2.351255</v>
       </c>
+      <c r="J13" t="n">
+        <v>2.351255</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -937,29 +1002,34 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.93914</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.93914</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1.93914</v>
       </c>
+      <c r="J14" t="n">
+        <v>1.93914</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -974,29 +1044,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.572049</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.572049</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1.572049</v>
       </c>
+      <c r="J15" t="n">
+        <v>1.572049</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1011,29 +1086,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.423678</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.423678</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0.423678</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.423678</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.961596</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>-0.961596</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>3.150556</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2.935558</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-3.150556</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-2.935558</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Ferrous Metals</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.07038</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>-3.07038</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>8.168625</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>8.289438000000001</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-8.168625</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-8.289438000000001</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>6.446333</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>2.869898</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-6.446333</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-2.869898</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.043005</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-1.043005</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.442494</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>-6.442494</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.618943</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>-1.618943</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>5.824721</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>6.25173</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-5.824721</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>-6.25173</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Quantamental Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Quantamental Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.997156</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>-1.997156</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
